--- a/Documents/Editable Docs/User Story 1.xlsx
+++ b/Documents/Editable Docs/User Story 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">  Test Case Name:</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Overall Test Result:</t>
   </si>
   <si>
     <r>
@@ -172,9 +169,6 @@
     <t>7.2.18</t>
   </si>
   <si>
-    <t>14:00 zulu</t>
-  </si>
-  <si>
     <t>Input username</t>
   </si>
   <si>
@@ -212,6 +206,22 @@
   </si>
   <si>
     <t>Testing to see that a user with an existing username and password can log into their account and access temperature and humidity data, as well as logout</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall Test Result: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Testing was successful and website performed as intended.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -446,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -480,30 +490,70 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -511,61 +561,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:J1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -869,13 +882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -888,8 +901,8 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>20</v>
+      <c r="A3" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -902,8 +915,8 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>21</v>
+      <c r="A4" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -916,8 +929,8 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>22</v>
+      <c r="A5" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -930,8 +943,8 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>23</v>
+      <c r="A6" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -944,8 +957,8 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>24</v>
+      <c r="A7" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -958,18 +971,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
@@ -978,104 +991,104 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="27" t="s">
+      <c r="D9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="D12" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>29</v>
+      <c r="J12" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="22">
+      <c r="D13" s="47">
         <v>1.01</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="48" t="s">
-        <v>30</v>
+      <c r="J13" s="48">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="D14" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1084,11 +1097,11 @@
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
+      <c r="D15" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>13</v>
@@ -1099,91 +1112,99 @@
       <c r="G15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="49" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="49" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>3</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="49" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>4</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="49" t="s">
+      <c r="E19" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -1195,9 +1216,9 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1209,23 +1230,23 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -2220,6 +2241,12 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="A13:B13"/>
@@ -2236,12 +2263,6 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
